--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -46,25 +46,67 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
     <t>Chris Bolton</t>
   </si>
   <si>
+    <t>Lucas Stoyanovich</t>
+  </si>
+  <si>
+    <t>cameron skinner</t>
+  </si>
+  <si>
+    <t>steve</t>
+  </si>
+  <si>
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
     <t>chris8bolton@icloud.com</t>
   </si>
   <si>
+    <t>luchotrod@outlook.com</t>
+  </si>
+  <si>
+    <t>camskin@foreskin.com</t>
+  </si>
+  <si>
+    <t>steve@live.ca</t>
+  </si>
+  <si>
+    <t>5191231234</t>
+  </si>
+  <si>
+    <t>5199999999</t>
+  </si>
+  <si>
+    <t>5199199191</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>0;2;</t>
+  </si>
+  <si>
     <t>0;</t>
   </si>
   <si>
+    <t>2;</t>
+  </si>
+  <si>
     <t>0;1;3;3;</t>
-  </si>
-  <si>
-    <t>2;</t>
   </si>
   <si>
     <t>user</t>
@@ -425,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +504,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>5198176511</v>
@@ -474,13 +516,13 @@
         <v>1234</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -488,10 +530,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>5195517141</v>
@@ -500,13 +542,82 @@
         <v>1111</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -43,70 +43,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
-    <t>Chris Bolton</t>
-  </si>
-  <si>
-    <t>Lucas Stoyanovich</t>
-  </si>
-  <si>
-    <t>cameron skinner</t>
-  </si>
-  <si>
-    <t>steve</t>
-  </si>
-  <si>
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>chris8bolton@icloud.com</t>
-  </si>
-  <si>
-    <t>luchotrod@outlook.com</t>
-  </si>
-  <si>
-    <t>camskin@foreskin.com</t>
-  </si>
-  <si>
-    <t>steve@live.ca</t>
-  </si>
-  <si>
-    <t>5191231234</t>
-  </si>
-  <si>
-    <t>5199999999</t>
-  </si>
-  <si>
-    <t>5199199191</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>0;2;</t>
+    <t>5198176511</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t>0;</t>
-  </si>
-  <si>
-    <t>2;</t>
-  </si>
-  <si>
-    <t>0;1;3;3;</t>
   </si>
   <si>
     <t>user</t>
@@ -467,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,120 +453,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>5198176511</v>
-      </c>
-      <c r="E2">
-        <v>1234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>5195517141</v>
-      </c>
-      <c r="E3">
-        <v>1111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -49,13 +49,10 @@
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>5198176511</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>0;</t>
+  </si>
+  <si>
+    <t>0;1;</t>
   </si>
   <si>
     <t>user</t>
@@ -458,20 +455,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>5198176511</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -43,16 +43,28 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>0;</t>
+    <t>steve@email.com</t>
   </si>
   <si>
     <t>0;1;</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>0;1;3;</t>
   </si>
   <si>
     <t>user</t>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>5198176511</v>
@@ -462,13 +474,39 @@
         <v>1234</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
+      </c>
+      <c r="D3">
+        <v>5198175111</v>
+      </c>
+      <c r="E3">
+        <v>1111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -49,22 +49,25 @@
     <t>Nic Bolton</t>
   </si>
   <si>
-    <t>Steve Jobs</t>
+    <t>Albert Bolton</t>
   </si>
   <si>
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>steve@email.com</t>
+    <t>albabolton@me.com</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Ryder0498$</t>
+  </si>
+  <si>
+    <t>1;</t>
   </si>
   <si>
     <t>0;1;</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>0;1;3;</t>
   </si>
   <si>
     <t>user</t>
@@ -470,17 +473,17 @@
       <c r="D2">
         <v>5198176511</v>
       </c>
-      <c r="E2">
-        <v>1234</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -494,19 +497,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>5198175111</v>
-      </c>
-      <c r="E3">
-        <v>1111</v>
+        <v>5195663730</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -43,31 +43,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
-    <t>Albert Bolton</t>
-  </si>
-  <si>
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>albabolton@me.com</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Ryder0498$</t>
-  </si>
-  <si>
-    <t>1;</t>
-  </si>
-  <si>
-    <t>0;1;</t>
+    <t>Hockey123!</t>
+  </si>
+  <si>
+    <t>0;</t>
+  </si>
+  <si>
+    <t>0;1;2;</t>
   </si>
   <si>
     <t>user</t>
@@ -428,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,48 +453,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>5198176511</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>5195663730</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -28,9 +28,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>games</t>
   </si>
   <si>
@@ -49,13 +46,7 @@
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>Hockey123!</t>
-  </si>
-  <si>
     <t>0;</t>
-  </si>
-  <si>
-    <t>0;1;2;</t>
   </si>
   <si>
     <t>user</t>
@@ -416,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,34 +435,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>5198176511</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/users.xlsx
+++ b/pyNeedBodies/users.xlsx
@@ -46,7 +46,7 @@
     <t>nicbolton17@icloud.com</t>
   </si>
   <si>
-    <t>0;</t>
+    <t>5198176511</t>
   </si>
   <si>
     <t>user</t>
@@ -446,10 +446,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>5198176511</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
